--- a/Assets/Excel/BuildingDataConfig.xlsx
+++ b/Assets/Excel/BuildingDataConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>required</t>
   </si>
@@ -53,10 +53,25 @@
     <t>enum</t>
   </si>
   <si>
-    <t>乡村办事处</t>
-  </si>
-  <si>
-    <t>OfficalBuilding</t>
+    <t>road1</t>
+  </si>
+  <si>
+    <t>Road</t>
+  </si>
+  <si>
+    <t>smallHouse</t>
+  </si>
+  <si>
+    <t>House</t>
+  </si>
+  <si>
+    <t>factory1</t>
+  </si>
+  <si>
+    <t>Factory</t>
+  </si>
+  <si>
+    <t>bigHouse</t>
   </si>
 </sst>
 </file>
@@ -997,7 +1012,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -1057,6 +1072,39 @@
         <v>9</v>
       </c>
     </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="10" ht="15" customHeight="1"/>
     <row r="24" ht="15" customHeight="1"/>
   </sheetData>
